--- a/rnaSample/rnaSample_3016.xlsx
+++ b/rnaSample/rnaSample_3016.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,12 +92,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +152,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,7 +176,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G8"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -190,7 +184,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
